--- a/Web Scrapper/data.xlsx
+++ b/Web Scrapper/data.xlsx
@@ -596,22 +596,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional Attributes : a Responsible to interact with other team stakeholders and ma...</t>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6-8 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,29 +621,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['HTML5', 'Pyspark', 'JavaScript', 'Django', 'object - relational mapping ORM', 'Python', 'Flask', 'Pyramid']</t>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Cyient</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,19 +653,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>HyrEzy Talent Solutions</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -749,29 +749,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Verisk Analytics India Private Limited</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,29 +781,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Informatica</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>4-7 Yrs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,24 +813,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>6-7 Yrs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Onward Technologies Limited</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>6-9 Yrs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,66 +904,66 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,24 +973,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Catalyst</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
         </is>
       </c>
     </row>

--- a/Web Scrapper/data.xlsx
+++ b/Web Scrapper/data.xlsx
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>UVA Digital</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Skill set: Well versed &amp; trained with latest versions of design software s like: 3D max...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-2 Yrs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,61 +493,61 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['3D max', '3D Design', 'Maya', 'Photoshop', 'CorelDraw', 'Visual Designer', '2D Design']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Acme Designers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> You must have experience in AutoCAD, 3D Studio Max or Cinema 4D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Bangalore/Bengaluru(HSR Layout)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['Visualiser', 'Lumion', 'Sketchup', '3D Design', 'Illustrator', 'AutoCAD', 'Google Sketchup', 'REVIT']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>NEWAGE PRODUCT DESIGNS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Selected candidates will be required to complete a Design Test Package.Bachelors Degree...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>4-7 Yrs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,29 +557,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['Design', 'Execution', 'Project Management', 'Rendering', 'Lighting', 'Texturing', 'Interiors', 'New Product']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Lightcraft</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Candidates with their own vehicle preferred2+ Years Experience</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>New Delhi(Okhla)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,29 +589,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['Design', '3D Modeling', 'Project Coordination', 'Lead Generation', 'Project Sales', 'Bdm', 'Business Development Management']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Yazaki India Private Limited</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> 3D master and 2D master release in teamcenter for each harness family CCDImplement CCD ...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>4-8 Yrs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Chennai(Perungudi)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,24 +621,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['Design', 'VAVE', '3D Cad', 'UG NX', 'Teamcenter']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Gokaldas Exports Ltd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> To have 3 to 5 years of experience in handling 3D soft wear preferably BROWZWEAR / CLO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,29 +653,29 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['Sewing', 'CAD', 'Photoshop']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Toppr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Certificate, associates degree, or bachelors degree in graphic design or a related fiel...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,29 +685,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['Graphics', 'Visual Effects', '3D', 'Kaizen', 'Time management', 'Texturing', 'Venture capital', 'Maya']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Gokaldas Exports Ltd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> To have 3 to 5 years of experience in handling 3D soft wear preferably BROWZWEAR / CLO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,61 +717,61 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['Sewing', 'CAD', 'Photoshop']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>The Patina Studio</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Must be able to read architectural drawings from AutoCAD, with knowledge of basic inter...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Delhi / NCR</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['Sketchup', 'Visualiser', 'Architecture', 'AutoCAD', 'Interiors', 'Photoshop', 'VRAY', '3Ds Max']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Vedarth Animation Studio Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Minimum 1+ years of working knowledge of and production experience with After EffectsNO...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>1-3 Yrs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,29 +781,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['Visual Effects', 'Adobe Premiere Pro', 'VFX', 'Adobe After Effects', 'Compositing', 'VRAY', '3Ds Max', '3D Compositing']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Quest Global</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> We are looking for a 2D/3D Graphic Artist with minimum experience of 4-6 years to work ...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,280 +813,280 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['3D Graphics', 'Design', 'UX', 'Illustrator', 'Maya', '3D Animation', 'Photoshop', 'Heavy Engineering']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Why you should DEFINITELY apply &amp; join us Excellent communication skills for 3D Particl...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad, Jaipur, Surat</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['Simulation Artist', 'Houdini', 'FX Artist', 'Fume FX', 'Time Management', 'Technical Skills', '3Ds Max', 'Particle Simulation']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Why you should DEFINITELY apply &amp; join us Excellent communication skills for 3D Particl...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh, Lucknow, Delhi / NCR</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['Simulation Artist', 'Houdini', 'FX Artist', 'Fume FX', 'Time Management', 'Technical Skills', '3Ds Max', 'Particle Simulation']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Why you should DEFINITELY apply &amp; join us Excellent communication skills for 3D Particl...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Guwahati, Bhubaneswar, Kolkata</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['Simulation Artist', 'Houdini', 'FX Artist', 'Fume FX', 'Time Management', 'Technical Skills', '3Ds Max', 'Particle Simulation']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> He / she should have good handle on various style of art for 3D Motion graphics video c...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Madurai, Chennai, Coimbatore</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['Cinema 4D', '3D Character Animation', 'Maya', 'Art', 'Unity3D', '3D Maya', '3Ds Max', '3D Compositing']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> He / she should have good handle on various style of art for 3D Motion graphics video c...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Bhopal, Gwalior, Indore</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['Cinema 4D', '3D Character Animation', 'Maya', 'Art', 'Unity3D', '3D Maya', '3Ds Max', '3D Compositing']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> He / she should have a good handle on various style of art for 3D Motion graphics video...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Vijayawada, Visakhapatnam, Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['Cinema 4D', '3D Generalist', 'Maya', 'texturing', '3D Modeler', 'Mudbox', 'Rigging', '3Ds Max']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> He / she should have a good handle on various style of art for 3D Motion graphics video...</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Mysore/Mysuru, Bangalore/Bengaluru, Belagavi/Belgaum</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['Cinema 4D', '3D Generalist', 'Maya', 'texturing', '3D Modeler', 'Mudbox', 'Rigging', '3Ds Max']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Advids.co</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> He / she should have a good handle on various style of art for 3D Motion graphics video...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Kochi/Cochin, Vellore, Trivandrum/Thiruvananthapuram</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>2,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['Cinema 4D', '3D Generalist', 'Maya', 'texturing', '3D Modeler', 'Mudbox', 'Rigging', '3Ds Max']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>UVA Digital</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Skill set: Well versed &amp; trained with latest versions of design software s like: 3D max...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-2 Yrs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['3D max', '3D Design', 'Maya', 'Photoshop', 'CorelDraw', 'Visual Designer', '2D Design']</t>
         </is>
       </c>
     </row>
